--- a/Customer_Feedback.xlsx
+++ b/Customer_Feedback.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Too Much</t>
+          <t>Just Right</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Too Little</t>
+          <t>Just Right</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Just Right</t>
+          <t>Too Much</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Too Much</t>
+          <t>Just Right</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Too Little</t>
+          <t>Too Much</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Just Right</t>
+          <t>Too Much</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Just Right</t>
+          <t>Too Much</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Just Right</t>
+          <t>Too Much</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Too Much</t>
+          <t>Too Little</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Too Much</t>
+          <t>Just Right</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Just Right</t>
+          <t>Too Much</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Too Little</t>
+          <t>Just Right</t>
         </is>
       </c>
     </row>
@@ -642,6 +642,306 @@
       <c r="B21" t="inlineStr">
         <is>
           <t>Too Little</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Just Right</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Too Little</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Too Much</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Just Right</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Just Right</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Too Much</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Too Much</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Too Much</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Too Little</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Just Right</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Just Right</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Too Much</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Too Much</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Just Right</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Just Right</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Too Little</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Too Much</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Too Much</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Just Right</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Too Much</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Too Little</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Just Right</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Just Right</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Just Right</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Just Right</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Too Much</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Just Right</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Just Right</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Just Right</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Too Much</t>
         </is>
       </c>
     </row>
